--- a/src/test/resources/DefinitionData/DefinitionStorage_1.xlsx
+++ b/src/test/resources/DefinitionData/DefinitionStorage_1.xlsx
@@ -26,7 +26,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>D0.5313897347289666</t>
+    <t>D0.9125181743180528</t>
   </si>
   <si>
     <t>Automobile</t>
@@ -35,13 +35,13 @@
     <t>India</t>
   </si>
   <si>
-    <t>Sat, 10 Dec 2022 21:22:41 +0530</t>
+    <t>Fri, 23 Dec 2022 23:19:07 -0800</t>
   </si>
   <si>
-    <t>D0.6763565034871812</t>
+    <t>D0.5477877949969697</t>
   </si>
   <si>
-    <t>D0.742386377676004</t>
+    <t>D0.6037163037954872</t>
   </si>
 </sst>
 </file>
